--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.7942777694497</v>
+        <v>55.26722666666667</v>
       </c>
       <c r="H2">
-        <v>37.7942777694497</v>
+        <v>165.80168</v>
       </c>
       <c r="I2">
-        <v>0.01167304672165398</v>
+        <v>0.01597985502890189</v>
       </c>
       <c r="J2">
-        <v>0.01167304672165398</v>
+        <v>0.01623411501809385</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N2">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O2">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P2">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q2">
-        <v>203.0887056426682</v>
+        <v>303.6965791876622</v>
       </c>
       <c r="R2">
-        <v>203.0887056426682</v>
+        <v>2733.26921268896</v>
       </c>
       <c r="S2">
-        <v>0.009704458357697536</v>
+        <v>0.01304274011458465</v>
       </c>
       <c r="T2">
-        <v>0.009704458357697536</v>
+        <v>0.01364186011335264</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.7942777694497</v>
+        <v>55.26722666666667</v>
       </c>
       <c r="H3">
-        <v>37.7942777694497</v>
+        <v>165.80168</v>
       </c>
       <c r="I3">
-        <v>0.01167304672165398</v>
+        <v>0.01597985502890189</v>
       </c>
       <c r="J3">
-        <v>0.01167304672165398</v>
+        <v>0.01623411501809385</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N3">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O3">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P3">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q3">
-        <v>19.68893855590958</v>
+        <v>36.34737589296</v>
       </c>
       <c r="R3">
-        <v>19.68893855590958</v>
+        <v>327.12638303664</v>
       </c>
       <c r="S3">
-        <v>0.000940822798187881</v>
+        <v>0.001560996764886365</v>
       </c>
       <c r="T3">
-        <v>0.000940822798187881</v>
+        <v>0.001632701358525379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.7942777694497</v>
+        <v>55.26722666666667</v>
       </c>
       <c r="H4">
-        <v>37.7942777694497</v>
+        <v>165.80168</v>
       </c>
       <c r="I4">
-        <v>0.01167304672165398</v>
+        <v>0.01597985502890189</v>
       </c>
       <c r="J4">
-        <v>0.01167304672165398</v>
+        <v>0.01623411501809385</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5690920035846579</v>
+        <v>0.5797745</v>
       </c>
       <c r="N4">
-        <v>0.5690920035846579</v>
+        <v>1.159549</v>
       </c>
       <c r="O4">
-        <v>0.08804604232946472</v>
+        <v>0.08611580937010824</v>
       </c>
       <c r="P4">
-        <v>0.08804604232946472</v>
+        <v>0.0591072285213179</v>
       </c>
       <c r="Q4">
-        <v>21.50842125985123</v>
+        <v>32.04252870705333</v>
       </c>
       <c r="R4">
-        <v>21.50842125985123</v>
+        <v>192.25517224232</v>
       </c>
       <c r="S4">
-        <v>0.001027765565768566</v>
+        <v>0.001376118149430881</v>
       </c>
       <c r="T4">
-        <v>0.001027765565768566</v>
+        <v>0.0009595535462158321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3052.68149079779</v>
+        <v>3231.170084666667</v>
       </c>
       <c r="H5">
-        <v>3052.68149079779</v>
+        <v>9693.510254000001</v>
       </c>
       <c r="I5">
-        <v>0.9428436200258625</v>
+        <v>0.93425403518284</v>
       </c>
       <c r="J5">
-        <v>0.9428436200258625</v>
+        <v>0.9491192151521513</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N5">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O5">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P5">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q5">
-        <v>16403.67720445213</v>
+        <v>17755.46486899485</v>
       </c>
       <c r="R5">
-        <v>16403.67720445213</v>
+        <v>159799.1838209537</v>
       </c>
       <c r="S5">
-        <v>0.7838387754748339</v>
+        <v>0.762537116879536</v>
       </c>
       <c r="T5">
-        <v>0.7838387754748339</v>
+        <v>0.7975643605807698</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3052.68149079779</v>
+        <v>3231.170084666667</v>
       </c>
       <c r="H6">
-        <v>3052.68149079779</v>
+        <v>9693.510254000001</v>
       </c>
       <c r="I6">
-        <v>0.9428436200258625</v>
+        <v>0.93425403518284</v>
       </c>
       <c r="J6">
-        <v>0.9428436200258625</v>
+        <v>0.9491192151521513</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N6">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O6">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P6">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q6">
-        <v>1590.295194148785</v>
+        <v>2125.030704902388</v>
       </c>
       <c r="R6">
-        <v>1590.295194148785</v>
+        <v>19125.27634412149</v>
       </c>
       <c r="S6">
-        <v>0.07599119527216586</v>
+        <v>0.09126287590624417</v>
       </c>
       <c r="T6">
-        <v>0.07599119527216586</v>
+        <v>0.09545504822740933</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3052.68149079779</v>
+        <v>3231.170084666667</v>
       </c>
       <c r="H7">
-        <v>3052.68149079779</v>
+        <v>9693.510254000001</v>
       </c>
       <c r="I7">
-        <v>0.9428436200258625</v>
+        <v>0.93425403518284</v>
       </c>
       <c r="J7">
-        <v>0.9428436200258625</v>
+        <v>0.9491192151521513</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5690920035846579</v>
+        <v>0.5797745</v>
       </c>
       <c r="N7">
-        <v>0.5690920035846579</v>
+        <v>1.159549</v>
       </c>
       <c r="O7">
-        <v>0.08804604232946472</v>
+        <v>0.08611580937010824</v>
       </c>
       <c r="P7">
-        <v>0.08804604232946472</v>
+        <v>0.0591072285213179</v>
       </c>
       <c r="Q7">
-        <v>1737.256625903915</v>
+        <v>1873.350020252574</v>
       </c>
       <c r="R7">
-        <v>1737.256625903915</v>
+        <v>11240.10012151545</v>
       </c>
       <c r="S7">
-        <v>0.08301364927886284</v>
+        <v>0.08045404239705985</v>
       </c>
       <c r="T7">
-        <v>0.08301364927886284</v>
+        <v>0.0560998063439721</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.88005201614717</v>
+        <v>5.924789000000001</v>
       </c>
       <c r="H8">
-        <v>1.88005201614717</v>
+        <v>17.774367</v>
       </c>
       <c r="I8">
-        <v>0.0005806681942038663</v>
+        <v>0.001713081603820286</v>
       </c>
       <c r="J8">
-        <v>0.0005806681942038663</v>
+        <v>0.001740338929326963</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N8">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O8">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P8">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q8">
-        <v>10.10251691616799</v>
+        <v>32.55705524290266</v>
       </c>
       <c r="R8">
-        <v>10.10251691616799</v>
+        <v>293.013497186124</v>
       </c>
       <c r="S8">
-        <v>0.0004827420333919815</v>
+        <v>0.00139821532256036</v>
       </c>
       <c r="T8">
-        <v>0.0004827420333919815</v>
+        <v>0.001462442529034636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,61 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.88005201614717</v>
+        <v>5.924789000000001</v>
       </c>
       <c r="H9">
-        <v>1.88005201614717</v>
+        <v>17.774367</v>
       </c>
       <c r="I9">
-        <v>0.0005806681942038663</v>
+        <v>0.001713081603820286</v>
       </c>
       <c r="J9">
-        <v>0.0005806681942038663</v>
+        <v>0.001740338929326963</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N9">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O9">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P9">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q9">
-        <v>0.9794135729657184</v>
+        <v>3.896532282474</v>
       </c>
       <c r="R9">
-        <v>0.9794135729657184</v>
+        <v>35.068790542266</v>
       </c>
       <c r="S9">
-        <v>4.680062440563744E-05</v>
+        <v>0.0001673428724298992</v>
       </c>
       <c r="T9">
-        <v>4.680062440563744E-05</v>
+        <v>0.0001750297894920526</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.88005201614717</v>
+        <v>5.924789000000001</v>
       </c>
       <c r="H10">
-        <v>1.88005201614717</v>
+        <v>17.774367</v>
       </c>
       <c r="I10">
-        <v>0.0005806681942038663</v>
+        <v>0.001713081603820286</v>
       </c>
       <c r="J10">
-        <v>0.0005806681942038663</v>
+        <v>0.001740338929326963</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5690920035846579</v>
+        <v>0.5797745</v>
       </c>
       <c r="N10">
-        <v>0.5690920035846579</v>
+        <v>1.159549</v>
       </c>
       <c r="O10">
-        <v>0.08804604232946472</v>
+        <v>0.08611580937010824</v>
       </c>
       <c r="P10">
-        <v>0.08804604232946472</v>
+        <v>0.0591072285213179</v>
       </c>
       <c r="Q10">
-        <v>1.069922568712569</v>
+        <v>3.4350415800805</v>
       </c>
       <c r="R10">
-        <v>1.069922568712569</v>
+        <v>20.610249480483</v>
       </c>
       <c r="S10">
-        <v>5.112553640624746E-05</v>
+        <v>0.0001475234088300271</v>
       </c>
       <c r="T10">
-        <v>5.112553640624746E-05</v>
+        <v>0.0001028666108002745</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1083,61 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>145.383106593162</v>
+        <v>3.689559</v>
       </c>
       <c r="H11">
-        <v>145.383106593162</v>
+        <v>11.068677</v>
       </c>
       <c r="I11">
-        <v>0.04490266505827957</v>
+        <v>0.001066791686439732</v>
       </c>
       <c r="J11">
-        <v>0.04490266505827957</v>
+        <v>0.001083765710432669</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.37353053500684</v>
+        <v>5.495057333333333</v>
       </c>
       <c r="N11">
-        <v>5.37353053500684</v>
+        <v>16.485172</v>
       </c>
       <c r="O11">
-        <v>0.8313560794454259</v>
+        <v>0.8161989011161211</v>
       </c>
       <c r="P11">
-        <v>0.8313560794454259</v>
+        <v>0.8403205285996808</v>
       </c>
       <c r="Q11">
-        <v>781.2205625525104</v>
+        <v>20.274338239716</v>
       </c>
       <c r="R11">
-        <v>781.2205625525104</v>
+        <v>182.469044157444</v>
       </c>
       <c r="S11">
-        <v>0.03733010357950242</v>
+        <v>0.0008707142021919227</v>
       </c>
       <c r="T11">
-        <v>0.03733010357950242</v>
+        <v>0.0009107105746689886</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>145.383106593162</v>
+        <v>3.689559</v>
       </c>
       <c r="H12">
-        <v>145.383106593162</v>
+        <v>11.068677</v>
       </c>
       <c r="I12">
-        <v>0.04490266505827957</v>
+        <v>0.001066791686439732</v>
       </c>
       <c r="J12">
-        <v>0.04490266505827957</v>
+        <v>0.001083765710432669</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.520950252734417</v>
+        <v>0.657666</v>
       </c>
       <c r="N12">
-        <v>0.520950252734417</v>
+        <v>1.972998</v>
       </c>
       <c r="O12">
-        <v>0.08059787822510947</v>
+        <v>0.09768528951377062</v>
       </c>
       <c r="P12">
-        <v>0.08059787822510947</v>
+        <v>0.1005722428790014</v>
       </c>
       <c r="Q12">
-        <v>75.73736612302243</v>
+        <v>2.426497509294</v>
       </c>
       <c r="R12">
-        <v>75.73736612302243</v>
+        <v>21.838477583646</v>
       </c>
       <c r="S12">
-        <v>0.003619059530350095</v>
+        <v>0.0001042098547407488</v>
       </c>
       <c r="T12">
-        <v>0.003619059530350095</v>
+        <v>0.0001089967482535678</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,247 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>3.689559</v>
+      </c>
+      <c r="H13">
+        <v>11.068677</v>
+      </c>
+      <c r="I13">
+        <v>0.001066791686439732</v>
+      </c>
+      <c r="J13">
+        <v>0.001083765710432669</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.5797745</v>
+      </c>
+      <c r="N13">
+        <v>1.159549</v>
+      </c>
+      <c r="O13">
+        <v>0.08611580937010824</v>
+      </c>
+      <c r="P13">
+        <v>0.0591072285213179</v>
+      </c>
+      <c r="Q13">
+        <v>2.1391122244455</v>
+      </c>
+      <c r="R13">
+        <v>12.834673346673</v>
+      </c>
+      <c r="S13">
+        <v>9.186762950706021E-05</v>
+      </c>
+      <c r="T13">
+        <v>6.405838751011219E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>145.383106593162</v>
-      </c>
-      <c r="H13">
-        <v>145.383106593162</v>
-      </c>
-      <c r="I13">
-        <v>0.04490266505827957</v>
-      </c>
-      <c r="J13">
-        <v>0.04490266505827957</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.5690920035846579</v>
-      </c>
-      <c r="N13">
-        <v>0.5690920035846579</v>
-      </c>
-      <c r="O13">
-        <v>0.08804604232946472</v>
-      </c>
-      <c r="P13">
-        <v>0.08804604232946472</v>
-      </c>
-      <c r="Q13">
-        <v>82.73636341846446</v>
-      </c>
-      <c r="R13">
-        <v>82.73636341846446</v>
-      </c>
-      <c r="S13">
-        <v>0.00395350194842706</v>
-      </c>
-      <c r="T13">
-        <v>0.00395350194842706</v>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>162.5045395</v>
+      </c>
+      <c r="H14">
+        <v>325.009079</v>
+      </c>
+      <c r="I14">
+        <v>0.046986236497998</v>
+      </c>
+      <c r="J14">
+        <v>0.03182256518999536</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.495057333333333</v>
+      </c>
+      <c r="N14">
+        <v>16.485172</v>
+      </c>
+      <c r="O14">
+        <v>0.8161989011161211</v>
+      </c>
+      <c r="P14">
+        <v>0.8403205285996808</v>
+      </c>
+      <c r="Q14">
+        <v>892.9717614794313</v>
+      </c>
+      <c r="R14">
+        <v>5357.830568876589</v>
+      </c>
+      <c r="S14">
+        <v>0.03835011459724815</v>
+      </c>
+      <c r="T14">
+        <v>0.0267411548018547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>162.5045395</v>
+      </c>
+      <c r="H15">
+        <v>325.009079</v>
+      </c>
+      <c r="I15">
+        <v>0.046986236497998</v>
+      </c>
+      <c r="J15">
+        <v>0.03182256518999536</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.657666</v>
+      </c>
+      <c r="N15">
+        <v>1.972998</v>
+      </c>
+      <c r="O15">
+        <v>0.09768528951377062</v>
+      </c>
+      <c r="P15">
+        <v>0.1005722428790014</v>
+      </c>
+      <c r="Q15">
+        <v>106.873710474807</v>
+      </c>
+      <c r="R15">
+        <v>641.2422628488421</v>
+      </c>
+      <c r="S15">
+        <v>0.00458986411546943</v>
+      </c>
+      <c r="T15">
+        <v>0.003200466755321069</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>162.5045395</v>
+      </c>
+      <c r="H16">
+        <v>325.009079</v>
+      </c>
+      <c r="I16">
+        <v>0.046986236497998</v>
+      </c>
+      <c r="J16">
+        <v>0.03182256518999536</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5797745</v>
+      </c>
+      <c r="N16">
+        <v>1.159549</v>
+      </c>
+      <c r="O16">
+        <v>0.08611580937010824</v>
+      </c>
+      <c r="P16">
+        <v>0.0591072285213179</v>
+      </c>
+      <c r="Q16">
+        <v>94.21598813634276</v>
+      </c>
+      <c r="R16">
+        <v>376.863952545371</v>
+      </c>
+      <c r="S16">
+        <v>0.004046257785280417</v>
+      </c>
+      <c r="T16">
+        <v>0.001880943632819592</v>
       </c>
     </row>
   </sheetData>
